--- a/output/cluster.game_all.json/game.result.xlsx
+++ b/output/cluster.game_all.json/game.result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,13 +439,13 @@
     <col customWidth="1" max="4" min="4" width="10"/>
     <col customWidth="1" max="5" min="5" width="10"/>
     <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="21"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
     <col customWidth="1" max="8" min="8" width="93"/>
     <col customWidth="1" max="9" min="9" width="12"/>
     <col customWidth="1" max="10" min="10" width="14"/>
     <col customWidth="1" max="11" min="11" width="8"/>
     <col customWidth="1" max="12" min="12" width="9"/>
-    <col customWidth="1" max="13" min="13" width="187"/>
+    <col customWidth="1" max="13" min="13" width="269"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="1">
@@ -515,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="75" r="2">
+    <row customHeight="1" ht="15" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>game</t>
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,326 +535,339 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>1636</v>
+        <v>2417</v>
       </c>
       <c r="G2" t="n">
-        <v>21.7148924873905</v>
+        <v>63.97564849126523</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>LEVEL: debug, MESSAGE: check register not finished</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1122</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.69825304393859</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>LEVEL: info, MESSAGE: init static instance Context 0x7ffbc81a2460</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>193</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.108523028057173</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>LEVEL: BI, MESSAGE: session_start_gs</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8999470619375332</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>LEVEL: warning, MESSAGE: checkTriggerConfig: triggerConstDef has no trigger_data, trigger=60, triggerDef:TRIGGER_TARGET_QUESTGROUP_STATE</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3176283748014823</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>LEVEL: error, MESSAGE: Z1PL1FyPmXGDg09J createEntityLocally init failed</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="75" r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" t="n">
+        <v>988</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26.15140285865538</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>[]     ...s\SpaceEntities\PlayerComponent\MediaMarkerComponent.lua:369</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2024/07/24</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>fei.ze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>222265</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>LEVEL: debug, MESSAGE: batchFindMediaMarkerCb ret for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1), {
   errmsg = "",
-  serviceId = "674cb3fadc65293ee4b4a2e1",
+  serviceId = "67534c012a07ef1745a66259",
   status = true
 }</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" t="n">
-        <v>940</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12.47677196708256</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[startReload]     ..._WorldX_P4\server\Engine/Core\Common\ReloadScheduler.lua:46</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2022/10/25</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>sinong.chen</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>LEVEL: info, MESSAGE: start reload file Common.Ability.AbilityDebugTool.lua</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.309264666843642</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[_innerAddPet]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:791</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2024/07/19</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>gongzhen.liu</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>219272</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>LEVEL: info, MESSAGE: _addPet petId=Z00hMb8OlebPX2fv	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.309264666843642</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[_addCharacterList]     ...erver\Scripts/CustomTypesServerMethods\CharacterInfo.lua:33</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2024/08/30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>gongzhen.liu</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>248719</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>LEVEL: debug, MESSAGE: _addCharacterList characterId=10102	PetInfo(templateId=1001100, entityId=Z00hMb8OlebPX2fv)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="195" r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.309264666843642</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[initByTemplate]     C:\__WorldX_P4\server\Scripts/CustomTypes\TalentList.lua:99</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2024/11/30</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>yingjie.cao</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>366298</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>LEVEL: debug, MESSAGE: init talent finish, talentCount=4 dict={ {
-    propValue = 0,
-    templateId = 5
-  }, {
-    propValue = 0,
-    templateId = 18
-  }, {
-    propValue = 0,
-    templateId = 24
-  }, {
-    propValue = 0,
-    templateId = 11
-  } }	PetInfo(templateId=1001100, entityId=Z00hMb8OlebPX2fv)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.309264666843642</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[updateCurPetFormation]     ...SpaceEntities\PlayerComponent\PetsFormationComponent.lua:233</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2024/10/29</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>gongzhen.liu</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>310803</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>LEVEL: debug, MESSAGE: updateCurPetFormation battle	false	Z00hMb8OlebPX2fv	1001100	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
-        </is>
-      </c>
-    </row>
     <row customHeight="1" ht="15" r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -872,40 +885,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="G8" t="n">
-        <v>5.309264666843642</v>
+        <v>13.41979883536263</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[updateCurPetFormation]     ...SpaceEntities\PlayerComponent\PetsFormationComponent.lua:235</t>
+          <t>[debugSpeedCheck]     ...es\SpaceEntities\CommonComponent\SpeedCheckComponent.lua:109</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>gongzhen.liu</t>
+          <t>qijun.jiang</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>310803</t>
+          <t>365905</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>LEVEL: debug, MESSAGE: updateCurPetFormation explore	false	Z00hMb8OlebPX2fv	1001100	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+          <t>LEVEL: debug, MESSAGE: speedCheck	0	2</t>
         </is>
       </c>
     </row>
@@ -926,40 +939,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="G9" t="n">
-        <v>5.309264666843642</v>
+        <v>5.823186871360509</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[batchAddPets]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:544</t>
+          <t>[overrideFunc]     C:\__WorldX_P4\server\Scripts/GameServer\Gm\GmManager.lua:88</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2022/10/18</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>gongzhen.liu</t>
+          <t>xiaotian.wen</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>293167</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: addPetByBatch success one, petId=Z00hMb8OlebPX2fv, sourceId=5</t>
+          <t>LEVEL: debug, MESSAGE: gm handlers register stopPVP1V1Game</t>
         </is>
       </c>
     </row>
@@ -980,40 +993,45 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="G10" t="n">
-        <v>5.309264666843642</v>
+        <v>5.082053996823716</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[_removePet]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:876</t>
+          <t>propertydeclaremgr.hpp:114(phonestcore::PropertyDeclareMgr::parseCustomTypeBundle)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>gongzhen.liu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>219272</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: _removePet petId=Z00hMb8OlebPX2fv	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+          <t>LEVEL: info, MESSAGE: DeclareMgr parse customType HatredMap</t>
         </is>
       </c>
     </row>
@@ -1034,40 +1052,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="G11" t="n">
-        <v>2.867002920095567</v>
+        <v>1.932239280042351</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[overrideFunc]     C:\__WorldX_P4\server\Scripts/GameServer\Gm\GmManager.lua:88</t>
+          <t>[onTrigger]     ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:160</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022/10/18</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>xiaotian.wen</t>
+          <t>gongzhen.liu</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>353296</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LEVEL: debug, MESSAGE: gm handlers register delSkill</t>
+          <t>LEVEL: debug, MESSAGE: onTrigger triggerType=42	triggerId=9100001   	cnt=1(1)      	UNKNOWN                  	ServerAbilityComponent.lua:1923    	triggerName=USE_PLAYER_SKILL                   	triggerParams=nil	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
         </is>
       </c>
     </row>
@@ -1088,45 +1106,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52190071675073</v>
+        <v>1.667548967707782</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>propertydeclaremgr.hpp:114(phonestcore::PropertyDeclareMgr::parseCustomTypeBundle)</t>
+          <t>[refresh]     ...ties\SpaceEntities\SpaceComponent\SpaceTileComponent.lua:98</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>bo.hu1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>218915</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: DeclareMgr parse customType CoolDownMap</t>
+          <t>LEVEL: debug, MESSAGE: ServerEntity (SingleWorld, Z1PL0lyPmXGDg09H, 259) load tile	1018850</t>
         </is>
       </c>
     </row>
@@ -1147,40 +1160,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7167507300238917</v>
+        <v>1.667548967707782</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+          <t>[doGainQuestByState]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:766</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2023/02/27</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>yansong.yang</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>160132</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=412, dbterm=13</t>
+          <t>LEVEL: info, MESSAGE: __quest doGainPendingQuest: questId = 3704038, state = 1	GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)</t>
         </is>
       </c>
     </row>
@@ -1201,40 +1214,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7167507300238917</v>
+        <v>1.614610905240868</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+          <t>[initPendingQuestList]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:344</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022/12/12</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>sinong.chen</t>
+          <t>yansong.yang</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>280477</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+          <t>LEVEL: info, MESSAGE: __quest initPendingQuestList: questId = 3704038, force = GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10).</t>
         </is>
       </c>
     </row>
@@ -1255,40 +1268,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7167507300238917</v>
+        <v>1.508734780307041</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+          <t>[doGainQuestByState]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:787</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022/11/01</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>yansong.yang</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>160132</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+          <t>LEVEL: info, MESSAGE: __quest doGainAcceptedQuest: questId = 3704038, state = 2	GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)</t>
         </is>
       </c>
     </row>
@@ -1309,44 +1322,44 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7167507300238917</v>
+        <v>1.508734780307041</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+          <t>[acceptQuest]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:510</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023/02/27</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>yansong.yang</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>163821</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=412, dbterm=13</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="17">
+          <t>LEVEL: info, MESSAGE: __quest acceptQuest: questId = 3704038, force = nil.	GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>game</t>
@@ -1363,45 +1376,45 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6238385983541279</v>
+        <v>1.508734780307041</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>propertydeclaremgr.hpp:93(phonestcore::PropertyDeclareMgr::parseDeclareBundle)</t>
+          <t>[]     ...ntities\SpaceEntities\PlayerComponent\EventComponent.lua:146</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>gongzhen.liu</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>302022</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: DeclareMgr parse declareBundle Mechanism</t>
+          <t>LEVEL: debug, MESSAGE: _doServerEvent eventId=62968494	addNpcSpecialInteract	{ 62967876, 1005, "playDialogueGraph", { 53791297 }, 0 }	{
+  eventDelay = 0,
+  eventId = 62968494,
+  questId = 2603002,
+  source = 1
+}	GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)</t>
         </is>
       </c>
     </row>
@@ -1422,45 +1435,40 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3451022033448368</v>
+        <v>1.42932768660667</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>configer.h:183(logic::Configer::Configer)</t>
+          <t>[refresh]     ...ties\SpaceEntities\SpaceComponent\SpaceTileComponent.lua:135</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>sinong.chen</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>105968</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: set default config RVO_TIME_STEP:0.1f  ( - )</t>
+          <t>LEVEL: debug, MESSAGE: ServerEntity (SingleWorld, Z1PL0lyPmXGDg09H, 259) unload tile	1020900</t>
         </is>
       </c>
     </row>
@@ -1481,40 +1489,45 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3451022033448368</v>
+        <v>1.244044467972472</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[regiterCustomTypesMethod]     C:\__WorldX_P4\server\Scripts/GameServer\ServerUtils.lua:42</t>
+          <t>propertydeclaremgr.hpp:93(phonestcore::PropertyDeclareMgr::parseDeclareBundle)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>sinong.chen</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>147014</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: BaseProperty.lua regiterCustomTypesMethod</t>
+          <t>LEVEL: info, MESSAGE: DeclareMgr parse declareBundle LeylineTree</t>
         </is>
       </c>
     </row>
@@ -1535,40 +1548,40 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2920095566764003</v>
+        <v>1.191106405505559</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[checkTriggerConfig]     C:\__WorldX_P4\server\Scripts/CheckServerData.lua:37</t>
+          <t>[]     ...ntities\SpaceEntities\PlayerComponent\EventComponent.lua:1609</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>yiheng.hong</t>
+          <t>gongzhen.liu</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>202184</t>
+          <t>273547</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>LEVEL: warning, MESSAGE: checkTriggerConfig: trigger_data has no triggerConstDef, trigger=28, statsType:0</t>
+          <t>LEVEL: debug, MESSAGE: addNpcSpecialInteract success, staticId=62967876, eventId=62968494	GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)</t>
         </is>
       </c>
     </row>
@@ -1589,45 +1602,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2654632333421821</v>
+        <v>1.058761249338274</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>configer.h:314(logic::Configer::add)</t>
+          <t>[]     ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:3201</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>qijun.jiang</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>304758</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: config:RESOURCE_MACHINE_LOAD_CHECK_COUNT override, 100 -&gt; 100</t>
+          <t>LEVEL: debug, MESSAGE: RPC_CS_CamouFlagEnemyDetected	false</t>
         </is>
       </c>
     </row>
@@ -1648,25 +1656,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
         <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2389169100079639</v>
+        <v>0.8999470619375332</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[checkIntervalFullGc]     C:\__WorldX_P4\server\Engine/Core\Server\Memory\Gc.lua:42</t>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:641</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022/10/25</t>
+          <t>2022/12/12</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1676,12 +1684,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>6160</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: fullGc check got totalBytes 132675806</t>
+          <t>LEVEL: info, MESSAGE: copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	259</t>
         </is>
       </c>
     </row>
@@ -1702,40 +1710,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2123705866737457</v>
+        <v>0.8999470619375332</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[refresh]     ...ties\SpaceEntities\SpaceComponent\SpaceTileComponent.lua:109</t>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2022/11/01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bo.hu1</t>
+          <t>fei.ze</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>218915</t>
+          <t>878</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>LEVEL: debug, MESSAGE: ServerEntity (SingleWorld, Z00g3r8OlebPX2fo, 252) load sandbox tile	1016800</t>
+          <t>LEVEL: info, MESSAGE: saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
         </is>
       </c>
     </row>
@@ -1756,40 +1764,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1592779400053093</v>
+        <v>0.8999470619375332</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[]     ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:3187</t>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2023/02/27</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>qijun.jiang</t>
+          <t>fei.ze</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>304758</t>
+          <t>15237</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>LEVEL: debug, MESSAGE: RPC_CS_CamouFlagEnemyDetected	false</t>
+          <t>LEVEL: info, MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=1015, dbterm=30</t>
         </is>
       </c>
     </row>
@@ -1810,40 +1818,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1460047783382002</v>
+        <v>0.8999470619375332</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[onAuthorityChanged]     ...ies\SpaceEntities\CommonComponent\AuthorityComponent.lua:26</t>
+          <t>[onEnterCombat]     ...\SpaceEntities\CommonComponent\CombatEntityComponent.lua:217</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022/12/22</t>
+          <t>2022/10/18</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>sinong.chen</t>
+          <t>xiaotian.wen</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>7965</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>LEVEL: debug, MESSAGE: AuthorityComponent self.authorityId Z0hiqZrYVkUqGKtT</t>
+          <t xml:space="preserve">LEVEL: info, MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1): onEnterCombat </t>
         </is>
       </c>
     </row>
@@ -1864,40 +1872,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1194584550039819</v>
+        <v>0.8999470619375332</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[refresh]     ...ties\SpaceEntities\SpaceComponent\SpaceTileComponent.lua:98</t>
+          <t>[onLeaveCombat]     ...\SpaceEntities\CommonComponent\CombatEntityComponent.lua:231</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2022/10/18</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>bo.hu1</t>
+          <t>xiaotian.wen</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>218915</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>LEVEL: debug, MESSAGE: ServerEntity (SingleWorld, Z00g3r8OlebPX2fo, 252) load tile	1017825</t>
+          <t xml:space="preserve">LEVEL: info, MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1): onLeaveCombat </t>
         </is>
       </c>
     </row>
@@ -1918,40 +1926,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09291213166976374</v>
+        <v>0.8734780307040761</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[_addProcessInfo]     ..._WorldX_P4\server\Engine/Core\Net\Etcd\EtcdProcessor.lua:894</t>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022/10/25</t>
+          <t>2023/02/27</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>xin.chu</t>
+          <t>fei.ze</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>15237</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEVEL: info, MESSAGE: EtcdProcessor (8043077 table: 0x0d5414e8) add process (674d208b88e1249dcce9aa25,StatefulConfigService,28012) </t>
+          <t>LEVEL: info, MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=1016, dbterm=30</t>
         </is>
       </c>
     </row>
@@ -1972,44 +1980,44 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09291213166976374</v>
+        <v>0.8205399682371625</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[onAddProcess]     C:\__WorldX_P4\server\Engine/Core\Server\EtcdGame.lua:356</t>
+          <t>[refresh]     ...ties\SpaceEntities\SpaceComponent\SpaceTileComponent.lua:109</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022/10/18</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>xiaotian.wen</t>
+          <t>bo.hu1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>218915</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: EtcdGame (Class EtcdGame : 0x0d53e078, 8043077) onAddProcess ProcessInfo (Class ProcessInfo : 0x0ace20a8, 8043077, StatefulConfigService, 674d208b88e1249dcce9aa25)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="60" r="29">
+          <t>LEVEL: debug, MESSAGE: ServerEntity (SingleWorld, Z1PL0lyPmXGDg09H, 259) load sandbox tile	1017825</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t>game</t>
@@ -2026,25 +2034,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09291213166976374</v>
+        <v>0.7940709370037057</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[_innerHandle]     C:\__WorldX_P4\server\Engine/Core\Server\GmHandler.lua:111</t>
+          <t>[checkSingleToFollow]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:1632</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023/07/04</t>
+          <t>2023/10/20</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2054,15 +2062,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>53776</t>
+          <t>76801</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: {oid, mid}: {8043077, getAllUids}, params {
-  GMTYPE = 4,
-  ServerName = "8043077-game0"
-}, GmHandler reveive.</t>
+          <t>LEVEL: debug, MESSAGE: @error checkShowPet failed, unit is dead	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	Z1FiMTRlFS6nxrKh</t>
         </is>
       </c>
     </row>
@@ -2083,40 +2088,40 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>24</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="n">
         <v>29</v>
       </c>
-      <c r="E30" t="n">
-        <v>30</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
       <c r="G30" t="n">
-        <v>0.07963897000265463</v>
+        <v>0.7676019057702488</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[_startWatchCallback]     ..._WorldX_P4\server\Engine/Core\Net\Etcd\EtcdProcessor.lua:636</t>
+          <t>[clrPlayerActiveState]     ...s\SpaceEntities\PlayerComponent\PlayerMatchComponent.lua:244</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022/10/25</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>xin.chu</t>
+          <t>null</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>null</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: EtcdProcessor (8043077 table: 0x0d5414e8) watch 1 got info changed</t>
+          <t>LEVEL: debug, MESSAGE: __PlayerMatchComponent clrPlayerActiveState, activeState = 2.	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
         </is>
       </c>
     </row>
@@ -2137,40 +2142,320 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07963897000265463</v>
+        <v>0.6881948120698782</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[createChunk]     ...rver\Engine/Core\Server\MicroService\LuaServiceShard.lua:523</t>
+          <t>configer.h:183(logic::Configer::Configer)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023/02/27</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>LEVEL: info, MESSAGE: Shard 8043077-game0, Service [serverEntity (TeamService, Z00gl78OlebPX2fD)] create chunk 1 for version 1</t>
+          <t>LEVEL: info, MESSAGE: set default config RVO_TIME_STEP:0.1f  ( - )</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>26</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6881948120698782</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[applyProperty]     C:\__WorldX_P4\server\Scripts/CustomTypes\TalentList.lua:176</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024/12/05</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>gongzhen.liu</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>375435</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>LEVEL: debug, MESSAGE: talent applyProperty, index=1, talentId=206, propId=203, propValue=0.0500	Pet(entityId=Z1FiMTRlFS6nxrKh, actorId=2)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>27</v>
+      </c>
+      <c r="E33" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6617257808364214</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[modifyQuestObjective]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:1075</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>yansong.yang</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>236602</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>LEVEL: info, MESSAGE: __quest modifyQuestObjective: questId = 3902018, trigger = 61, triggerId = 3902006, cnt = 1, extraArg = nil	GuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>28</v>
+      </c>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6352567496029645</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[addEntry]     ...s/Entities\SpaceEntities\Ability\ActorAttributeEntry.lua:82</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024/06/20</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>qijun.jiang</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>203149</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>LEVEL: info, MESSAGE: addEntry	Z0hiqZrYVkUqGKtT	Z0_z-lb4kVGMjKQO	8010105	{}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>29</v>
+      </c>
+      <c r="E35" t="n">
+        <v>30</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6087877183695076</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[onAuthorityChanged]     ...ies\SpaceEntities\CommonComponent\AuthorityComponent.lua:26</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2022/12/22</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>sinong.chen</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>7965</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>LEVEL: debug, MESSAGE: AuthorityComponent self.authorityId Z0hiqZrYVkUqGKtT</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>30</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5293806246691372</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>configer.h:314(logic::Configer::add)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>LEVEL: info, MESSAGE: config:RESOURCE_LOW_LOAD_THRESHOLD override, 10 -&gt; 10</t>
         </is>
       </c>
     </row>
